--- a/Lista rozwiązań.xlsx
+++ b/Lista rozwiązań.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lordj\Desktop\Arkusze\Matury\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FB4563B-B28E-42B2-B7D7-B5B8EBE16211}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84F8B823-D361-4632-9F2C-E65CB0B9974D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{7B6999EC-96E4-48A3-B634-461892EEBB9C}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="21">
   <si>
     <t>Rok</t>
   </si>
@@ -91,6 +91,12 @@
   </si>
   <si>
     <t>Zadanie 9</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>T(bez c)</t>
   </si>
 </sst>
 </file>
@@ -141,7 +147,11 @@
   <cellStyles count="1">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -152,6 +162,26 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D5F568F5-C78B-4560-A63C-EF0B857DA8D1}" name="Tabela1" displayName="Tabela1" ref="A1:K36" totalsRowShown="0">
+  <autoFilter ref="A1:K36" xr:uid="{D5F568F5-C78B-4560-A63C-EF0B857DA8D1}"/>
+  <tableColumns count="11">
+    <tableColumn id="1" xr3:uid="{11C35D04-0DBF-484A-B462-80AF42F1AB7E}" name="Rok" dataDxfId="0"/>
+    <tableColumn id="2" xr3:uid="{BF0C762E-5F53-46C5-917A-FBD1A5587DA3}" name="Miesiąc"/>
+    <tableColumn id="3" xr3:uid="{3356F00D-2698-4FCE-9D20-88ECFB266E84}" name="Zadanie 1"/>
+    <tableColumn id="4" xr3:uid="{06AF4C39-1D34-499C-9356-AADFAF170F58}" name="Zadanie 2"/>
+    <tableColumn id="5" xr3:uid="{E3799151-7448-4960-94FE-FA8EBFD1F822}" name="Zadanie 3"/>
+    <tableColumn id="6" xr3:uid="{CEFDA554-28CD-4436-B158-84709012CEC4}" name="Zadanie 4"/>
+    <tableColumn id="7" xr3:uid="{E5BB3E1B-8924-43E9-B8C1-5045B6195AEE}" name="Zadanie 5"/>
+    <tableColumn id="8" xr3:uid="{2D8D0147-A079-4215-BCFE-E3E993030312}" name="Zadanie 6"/>
+    <tableColumn id="9" xr3:uid="{8FDD4A04-1E67-442A-9008-89AE87BB2821}" name="Zadanie 7"/>
+    <tableColumn id="10" xr3:uid="{E8D1231E-16E2-4010-A12B-D24FAEB46B02}" name="Zadanie 8"/>
+    <tableColumn id="11" xr3:uid="{8CFB6BEC-147E-4962-A8E4-21CCE07FADE3}" name="Zadanie 9"/>
+  </tableColumns>
+  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -453,11 +483,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE0BA300-C20E-4845-9AAF-0577EED73807}">
   <dimension ref="A1:K37"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F35" sqref="F35"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F34" sqref="F34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="9.5546875" customWidth="1"/>
+    <col min="3" max="11" width="11.5546875" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -877,15 +911,27 @@
         <v>4</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>2013.7584615384601</v>
       </c>
       <c r="B33" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F33" t="s">
+        <v>20</v>
+      </c>
+      <c r="I33" t="s">
+        <v>19</v>
+      </c>
+      <c r="J33" t="s">
+        <v>19</v>
+      </c>
+      <c r="K33" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>2012.83676923077</v>
       </c>
@@ -893,7 +939,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>2011.60784615385</v>
       </c>
@@ -904,7 +950,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>2010.6861538461501</v>
       </c>
@@ -912,11 +958,14 @@
         <v>3</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/Lista rozwiązań.xlsx
+++ b/Lista rozwiązań.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lordj\Desktop\Arkusze\Matury\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84F8B823-D361-4632-9F2C-E65CB0B9974D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{717F9F2C-6116-46BA-897E-E197729A3F5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{7B6999EC-96E4-48A3-B634-461892EEBB9C}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="22">
   <si>
     <t>Rok</t>
   </si>
@@ -97,6 +97,9 @@
   </si>
   <si>
     <t>T(bez c)</t>
+  </si>
+  <si>
+    <t>T(B)</t>
   </si>
 </sst>
 </file>
@@ -483,8 +486,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE0BA300-C20E-4845-9AAF-0577EED73807}">
   <dimension ref="A1:K37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F34" sqref="F34"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -536,7 +539,7 @@
         <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D2" t="s">
         <v>17</v>
